--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/vf2.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/vf2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bibliografia_id</t>
+          <t>bibliografia_titulo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O envolvimento do Conselho de Segurança na Bósnia-Herzegovina foi propiciado por uma combinação de fatores tradicionais de segurança entre Estados e questões envolvendo atrocidades contra direitos humanos.</t>
+          <t>A principal dificuldade da macroeconomia em relação à microeconomia é a agregação de milhões de mercadorias diferentes para mensurar a produção total.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A intervenção do Conselho de Segurança na Bósnia-Herzegovina se deu exclusivamente em razão de conflitos militares transfronteiriços, seguindo o modelo tradicional do Capítulo VII.</t>
+          <t>Na macroeconomia, a mensuração da produção é mais simples que na microeconomia, pois basta somar as quantidades físicas de todos os bens produzidos.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A intervenção na Bósnia combinou fatores tradicionais de segurança entre Estados com questões de atrocidades contra direitos humanos, ampliando o alcance da ação do Conselho.</t>
+          <t>A macroeconomia exige um denominador comum (preços) para agregar bens heterogêneos, diferentemente da micro que analisa mercados isolados.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,32 +512,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança tem ampliado o uso do Capítulo VII para incorporar crises humanitárias internas ao conceito de “ameaças à paz e à segurança internacionais”.</t>
+          <t>A Contabilidade Nacional foi desenvolvida como um instrumental para mensurar a totalidade das atividades econômicas, permitindo testes empíricos.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança limitou rigorosamente o uso do Capítulo VII apenas a ameaças militares transfronteiriças, conforme a concepção inicial da Carta da ONU.</t>
+          <t>A Contabilidade Nacional foi criada para substituir a teoria econômica, demonstrando que a mensuração dispensa a análise qualitativa.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O recurso ao Capítulo VII para criar zonas de segurança e tribunais em crises internas integra o movimento de incorporar crises humanitárias ao conceito de "ameaças à paz e à segurança internacionais".</t>
+          <t>O desenvolvimento da contabilidade nacional forneceu a base de dados necessária para testar teorias e fundamentar análises econômicas.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,32 +546,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 21</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O Capítulo VII da Carta da ONU confere ao Conselho de Segurança o poder de autorizar o emprego da força em reação a ameaças e violações da paz internacional.</t>
+          <t>Os fatores de produção, recursos utilizados na geração de bens e serviços, são classicamente divididos em terra, capital e trabalho.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>O Capítulo VII da Carta da ONU apenas permite ao Conselho de Segurança impor sanções econômicas, sendo o uso da força autorizado pela Assembleia Geral.</t>
+          <t>Na economia moderna, o dinheiro é considerado o único fator de produção relevante, substituindo a terra e o trabalho.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Capítulo VII confere ao Conselho de Segurança o poder de autorizar o emprego da força em reação a ameaças e violações da paz internacional.</t>
+          <t>Terra, capital e trabalho são os recursos físicos e humanos combinados no ato da produção.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,32 +580,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A Carta da ONU confere ao Conselho de Segurança amplos poderes para determinar o alcance de sua própria competência jurídica, permitindo-lhe ir além da concepção tradicional de ameaça.</t>
+          <t>O produto é uma variável de fluxo, pois corresponde à soma daquilo que foi produzido em um país durante um determinado período.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança da ONU viola a Carta ao considerar crises humanitárias internas como “ameaças à paz e à segurança internacionais”, pois extrapola a jurisdição estabelecida.</t>
+          <t>O produto é uma variável de estoque, pois mede a riqueza acumulada por um país em um instante específico do tempo.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A Carta da ONU confere ao Conselho amplos poderes para determinar o alcance de sua própria competência jurídica, o que permitiu a ampliação do conceito de ameaça internacional.</t>
+          <t>Variáveis de fluxo (como o produto) são medidas ao longo do tempo, enquanto estoques são medidos em um momento estático.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,32 +614,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Em 1992, o Conselho de Segurança considerou que a generalizada guerra civil e o surto de fome na Somália constituíam uma ameaça à paz e à segurança internacionais.</t>
+          <t>O crescimento econômico é definido como o aumento do produto em determinado período, ou seja, a elevação da produção de bens e serviços.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança inicialmente apenas impôs um embargo de armas à Somália em 1992, mas se recusou a classificá-lo como uma ameaça à paz internacional, evitando o uso do Capítulo VII.</t>
+          <t>O crescimento econômico é definido pela quantidade de dinheiro impresso pelo governo em determinado período, independente da produção.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança decidiu em janeiro de 1992 que a confluência da guerra civil e da fome na Somália constituíam ameaça à paz e à segurança internacionais.</t>
+          <t>Crescimento real refere-se à expansão da capacidade de produzir bens e serviços que satisfazem necessidades.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,32 +648,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 22</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A segunda força multinacional na Somália, liderada pelos EUA em 1992, tinha um amplo mandato para "promover a paz" e estava autorizada a recorrer à força militar.</t>
+          <t>A relação entre fluxo e estoque é tal que a diferença entre o valor do estoque em dois momentos fornece o valor do fluxo do período.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A força da Unsom II, liderada pelos EUA, tinha um mandato limitado apenas a "manter a paz" e não podia recorrer à força militar para desarmar milícias.</t>
+          <t>Fluxos e estoques são variáveis independentes na economia, sem nenhuma relação matemática entre si.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A força liderada pelos EUA estava autorizada a ações para "promover a paz", e não apenas "manter a paz", dispondo de amplos poderes para recorrer à força militar.</t>
+          <t>O fluxo é o que alimenta ou drena o estoque ao longo do tempo (ex: investimento é o fluxo que altera o estoque de capital).</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,32 +682,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O colapso da operação da ONU e da força liderada pelos EUA na Somália em 1993 foi precipitado pela morte de 18 soldados americanos e pelo clamor público causado pelas imagens de TV.</t>
+          <t>Para agregar bens diferentes (como laranjas e parafusos), a economia utiliza seus valores monetários (preços) como denominador comum.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A retirada das forças americanas da Somália em 1993 foi planejada e não teve relação com a morte de soldados ou com a reação da mídia.</t>
+          <t>Para calcular o produto nacional, somam-se as quantidades físicas de todos os bens, ignorando seus preços de mercado.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A morte de 18 soldados americanos em outubro de 1993 e as imagens na televisão causaram clamor público, levando à rápida retirada das forças dos EUA.</t>
+          <t>O uso de valores monetários é a única forma de somar itens heterogêneos em um indicador agregado.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,32 +716,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O episódio da Somália estabeleceu o importante precedente de o Conselho de Segurança autorizar uma intervenção militar, sob o Capítulo VII, com o propósito exclusivo de evitar sofrimento humanitário.</t>
+          <t>A mensuração do produto deve considerar apenas os bens finais para evitar o problema da dupla contagem dos bens intermediários.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Apesar da crise, o Conselho de Segurança na Somália nunca invocou o Capítulo VII, limitando a intervenção ao mandato tradicional de manutenção da paz.</t>
+          <t>A mensuração do produto deve somar o valor de todas as transações, incluindo bens finais e intermediários, para obter o valor bruto total.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança considerou uma crise humanitária como ameaça à paz e usou o Capítulo VII para autorizar intervenção militar com o propósito exclusivo de evitar sofrimento.</t>
+          <t>Somar bens intermediários duplicaria o valor, pois eles já estão incorporados no preço do bem final.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,32 +750,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 23</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Durante o massacre de tutsis em Ruanda em 1994, o Conselho de Segurança reagiu inicialmente reduzindo sua força de 2.500 para 270 soldados de manutenção da paz.</t>
+          <t>O conceito de "bem final" depende da utilização da mercadoria, não de sua natureza intrínseca.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança agiu rapidamente em Ruanda, enviando reforços de cinco mil homens, conforme solicitado pelo comandante da operação da ONU em Kigali.</t>
+          <t>Uma mercadoria é classificada como bem final ou intermediário baseada exclusivamente em suas características físicas de fábrica.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Estranhamente, o Conselho de Segurança reagiu reduzindo sua força de 2.500 para 270 soldados de manutenção da paz.</t>
+          <t>O mesmo bem (ex: açúcar) pode ser final (consumo familiar) ou intermediário (insumo industrial) dependendo do uso.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,32 +784,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança da ONU não condenou prontamente o golpe no Haiti em 1991 devido às restrições da China sobre o envolvimento do Conselho em questões de jurisdição nacional.</t>
+          <t>O Valor Adicionado é a diferença entre o valor bruto da produção e o valor dos bens intermediários (insumos) utilizados na etapa.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança foi o primeiro organismo internacional a condenar o golpe no Haiti em 1991, agindo mais rapidamente que a OEA e a Assembleia Geral.</t>
+          <t>O Valor Adicionado é calculado somando-se o custo dos insumos ao lucro da empresa, ignorando os salários.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança não reagiu com a mesma rapidez que a OEA e a Assembleia Geral, pois a China manifestava restrições ao crescente envolvimento em questões de jurisdição nacional.</t>
+          <t>Valor adicionado representa a riqueza efetivamente criada em cada etapa, descontando o que foi comprado de outros.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Em 1993, o Conselho de Segurança impôs um embargo ao Haiti justificando que a crise ameaçava a paz regional devido a crises humanitárias e o deslocamento em massa de populações.</t>
+          <t>O PIB a preços de mercado (PIBpm) é o valor monetário de venda dos produtos finais produzidos dentro do país em determinado período.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A imposição do embargo ao Haiti em 1993 foi baseada estritamente na necessidade de restaurar a democracia, sem relação com crises humanitárias ou deslocamento de refugiados.</t>
+          <t>O PIB a preços de mercado exclui os serviços e considera apenas a produção de bens tangíveis industriais e agrícolas.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A resolução mencionava fatores como "a ocorrência de crises humanitárias, entre elas o deslocamento em massa de populações" como ameaças à paz e à segurança internacionais.</t>
+          <t>O PIB engloba toda a produção final de bens e serviços realizada no território nacional.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,32 +852,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 24</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A referência à fuga de milhares de refugiados haitianos em direção à Flórida conferiu uma dimensão internacional à crise, justificando a iniciativa do Conselho de Segurança.</t>
+          <t>O consumo público refere-se aos bens e serviços oferecidos "gratuitamente" pelo governo, como segurança e justiça, consumidos coletivamente.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança considerou a crise do Haiti como puramente interna, ignorando a questão dos refugiados, que era considerada insignificante pelos EUA.</t>
+          <t>O consumo público refere-se exclusivamente às compras de bens pessoais feitas pelos funcionários públicos com seus salários.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A referência aos refugiados era importante para a China, pois conferia dimensão internacional à situação, o que poderia justificar iniciativa do Conselho de Segurança por motivos mais tradicionais.</t>
+          <t>Consumo do governo mede os custos de prover serviços coletivos não vendidos no mercado.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,32 +886,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A Resolução 940 autorizou, a pedido de Aristide, o emprego de “todos os meios necessários” para afastar a junta militar e restabelecer o governo legítimo no Haiti.</t>
+          <t>As importações são subtraídas no cálculo do produto pela ótica do dispêndio porque correspondem a bens consumidos internamente, mas não produzidos no país.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A Resolução 940 foi vetada pela China e pela Rússia, impedindo o uso da força militar no Haiti, o que levou à negociação de última hora por Jimmy Carter.</t>
+          <t>As importações são somadas ao produto nacional pois representam um aumento na disponibilidade de bens para a população.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A Resolução 940, que invocou o Capítulo VII, autorizou o emprego de "todos os meios necessários" para afastar a junta e restabelecer o governo legítimo, a pedido de Aristide.</t>
+          <t>Na ótica do produto, deve-se medir apenas o esforço produtivo interno; importações são vazamentos de renda para o exterior.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,32 +920,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>As ações do Conselho de Segurança no Haiti confirmam sua competência legal para autorizar o uso da força em crises humanitárias internas que pouca ou nenhuma ameaça apresentem para outros países.</t>
+          <t>A igualdade entre Produto e Renda decorre do fato de que o valor adicionado corresponde exatamente à soma da remuneração dos fatores de produção.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>As iniciativas do Conselho de Segurança no Haiti não estabeleceram um precedente jurídico firme, dependendo estritamente do convite do governo legítimo no exílio (Aristide).</t>
+          <t>O Produto é sempre maior que a Renda, pois as empresas retêm parte do valor adicionado sem distribuí-lo aos fatores.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>As iniciativas no Haiti confirmam que o Conselho se considera legalmente competente para impor sanções e autorizar o uso da força para reagir a crises humanitárias internas.</t>
+          <t>Contabilmente, todo o valor adicionado é distribuído como salários, lucros, juros ou aluguéis.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,32 +954,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 25</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Em 2004, o Painel de Alto Nível do Secretário-Geral informou que o Conselho de Segurança pode autorizar ações militares sob o Capítulo VII para corrigir agravos internos catastróficos.</t>
+          <t>A Absorção Interna é a soma do consumo e do investimento, diferindo do PIB por não incluir o saldo da balança comercial (exportações e importações).</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>O Painel de Alto Nível de 2004 concluiu que o Conselho de Segurança não tem autoridade legal sob o Capítulo VII para intervir militarmente em agravos puramente internos.</t>
+          <t>A Absorção Interna é sinônimo de Produto Interno Bruto, pois tudo o que é absorvido internamente foi necessariamente produzido no país.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>O Painel de Alto Nível informou que o Conselho pode autorizar ações militares sob o Capítulo VII para corrigir agravos internos catastróficos se considerar que a situação constitui "ameaça à paz e à segurança internacionais".</t>
+          <t>Absorção mede o que o país gasta (C+I), enquanto o PIB mede o que o país produz (inclui X, exclui M).</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -988,32 +988,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A Resolução 1529 (2004) sobre o Haiti invocou o Capítulo VII, determinando que a situação constituía uma ameaça à paz, especialmente em vista da possibilidade de fuga de pessoas para outros Estados.</t>
+          <t>O investimento é a aquisição de bens de capital ou acúmulo de estoques que visam aumentar ou manter a capacidade produtiva futura.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A Resolução 1529 (2004) evitou invocar o Capítulo VII, limitando-se a reconhecer a renúncia de Aristide e a solicitar uma missão de manutenção da paz tradicional.</t>
+          <t>Na economia, investimento é definido como a compra de ações na bolsa de valores ou títulos do governo por parte das famílias.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A resolução invocava expressamente o Capítulo VII, determinando que a situação constituía uma ameaça à paz e segurança internacionais, especialmente em vista da possibilidade de fuga de pessoas para outros Estados.</t>
+          <t>Macroeconomicamente, investimento é a formação de capital físico real, não aplicações financeiras.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1022,32 +1022,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Em 1975, o Conselho de Segurança se recusou a impor sanções ou autorizar o uso da força contra a invasão da Indonésia em Timor Leste por considerar a Indonésia estrategicamente importante para os Estados Unidos e seus aliados.</t>
+          <t>Em uma economia simples sem governo ou setor externo, a renda total é igual ao consumo total (Y = C).</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança adotou fortes sanções contra a Indonésia em 1975, mas não autorizou o uso da força, pois Portugal vetou a medida.</t>
+          <t>Em uma economia simples, a renda é sempre menor que o consumo, gerando endividamento perpétuo das famílias.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O Conselho recusou-se a qualificar a invasão como violação da Carta da ONU, ou impor sanções, pois a Indonésia era por demais importante para os Estados Unidos e seus aliados durante a Guerra Fria.</t>
+          <t>Sem outros agentes ou poupança, toda a renda gerada na produção é revertida em consumo imediato.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1056,32 +1056,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 26</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O acordo de maio de 1999 sobre o referendo em Timor Leste imprudentemente atribuiu a responsabilidade pela segurança à Indonésia, e não às Nações Unidas.</t>
+          <t>O fluxo circular da renda mostra a interação entre famílias e empresas nos mercados de bens e de fatores de produção.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>O acordo de maio de 1999 assegurou que a segurança do referendo em Timor Leste estaria sob o comando exclusivo das forças da ONU.</t>
+          <t>O fluxo circular da renda demonstra que o dinheiro desaparece do sistema econômico após o consumo das famílias.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>O acordo atribuiu a responsabilidade pela segurança no referendo à Indonésia, e não às Nações Unidas.</t>
+          <t>A renda circula: empresas pagam famílias (fatores) que compram das empresas (bens), fechando o ciclo.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1090,32 +1090,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A esmagadora maioria (78,5%) dos timorenses votou pela independência em 1999, resultando na intensificação da violência da milícia pró-Indonésia e na fuga de centenas de milhares de suas casas.</t>
+          <t>A função do Sistema Financeiro é captar a poupança das famílias e transferi-la, via empréstimos, para financiar o investimento das empresas.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A votação pela independência em Timor Leste, em 1999, foi pacífica e aceita imediatamente pelo governo indonésio.</t>
+          <t>O Sistema Financeiro serve apenas para guardar dinheiro, impedindo que ele seja utilizado para investimentos produtivos.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A esmagadora maioria votou pela independência, resultando na intensificação das ações violentas da milícia pró-Indonésia, que matou mais de mil pessoas.</t>
+          <t>O sistema financeiro realiza a intermediação entre agentes superavitários (poupadores) e deficitários (investidores).</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1124,32 +1124,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A Resolução 1264 autorizou uma força multinacional, sob o Capítulo VII, a "tomar todas as medidas necessárias" para restabelecer a paz em Timor Leste.</t>
+          <t>A poupança (S) é definida como a parcela da renda das famílias que não é consumida em determinado período.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A Resolução 1264 apenas enviou observadores eleitorais para Timor Leste, limitando-se a apelos diplomáticos para o fim da violência.</t>
+          <t>A poupança é o dinheiro que as famílias utilizam para comprar bens de consumo duráveis, como automóveis.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A Resolução 1264, baseada no Capítulo VII, autorizou uma força multinacional a "tomar todas as medidas necessárias" para restabelecer a paz e a segurança.</t>
+          <t>Poupança é o ato de abster-se do consumo presente (Renda - Consumo).</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1158,32 +1158,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pág 27</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A criação da Administração Transitória das Nações Unidas em Timor Leste (Untaet) marcou a primeira vez que a ONU assumiu controle completo sobre as funções soberanas de um país.</t>
+          <t>Com a introdução da poupança, a identidade da renda torna-se Y = C + S, indicando que a renda ou é consumida ou é poupada.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A Untaet, embora importante, não marcou a primeira vez que a ONU assumiu controle soberano, pois já havia exercido essa função em missões na Somália e na Bósnia.</t>
+          <t>A introdução da poupança faz com que a renda desapareça da contabilidade nacional, pois o dinheiro sai de circulação.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Foi a primeira vez que as Nações Unidas assumiram controle completo sobre as funções soberanas de um país.</t>
+          <t>A renda total tem dois destinos possíveis para as famílias: consumo ou poupança.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1192,32 +1192,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Os *janjaweed*, membros de tribos árabes nômades em Darfur, foram armados pelo governo sudanês (Cartum) para reprimir a rebelião das tribos agrícolas negras.</t>
+          <t>A identidade fundamental macroeconômica derivada da igualdade entre renda e demanda agregada é que o Investimento é igual à Poupança (I = S).</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>O governo sudanês condenou e ativamente combateu os *janjaweed*, que agiam por conta própria contra as tribos agrícolas em Darfur.</t>
+          <t>O Investimento é sempre maior que a Poupança, pois o governo pode criar dinheiro para cobrir a diferença.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cartum armou os *janjaweed*, delegando-lhes a missão de reprimir a rebelião das tribos agrícolas negras.</t>
+          <t>Contabilmente (ex-post), os recursos não consumidos (S) financiam a formação de capital (I).</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1226,32 +1226,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Em julho de 2004, o Congresso dos EUA aprovou uma resolução designando as atrocidades cometidas em Darfur como “genocídio”.</t>
+          <t>A depreciação é a parcela do estoque de capital consumida/desgastada no processo produtivo; o investimento líquido desconta essa depreciação.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>O Congresso dos EUA se recusou a usar o termo "genocídio" para Darfur em 2004, optando por classificá-las como "atrocidades em massa" devido a implicações de ação militar.</t>
+          <t>A depreciação representa a valorização dos ativos da empresa ao longo do tempo devido à inflação.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Em julho de 2004, o Congresso dos EUA aprovou resolução designando como “genocídio” as atrocidades que vinham sendo cometidas em Darfur.</t>
+          <t>Investimento Líquido = Investimento Bruto - Depreciação (reposição do desgaste).</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1260,32 +1260,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pág 28</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Um embargo de petróleo contra o Sudão é improvável, pois a China e a Rússia, membros do CS com direito a veto, investiram pesadamente na indústria petrolífera sudanesa.</t>
+          <t>Os bens públicos caracterizam-se por serem não rivais e não excludentes, o que dificulta sua provisão eficiente pelo mercado privado.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Os Estados Unidos e seus aliados vetariam um embargo de petróleo contra o Sudão, pois são os principais investidores na indústria petrolífera do país.</t>
+          <t>Bens públicos são aqueles produzidos por empresas estatais e vendidos no mercado a preços competitivos.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>China e Rússia, membros do Conselho de Segurança com direito de veto, investiram pesadamente na indústria petrolífera do Sudão e impediriam esta sanção.</t>
+          <t>A natureza de "não exclusão" impede a cobrança direta, exigindo provisão estatal financiada por impostos.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1294,32 +1294,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Na ausência de autorização do Conselho de Segurança da ONU, a mobilização das forças da Organização da Unidade Africana (OUA) em Darfur dependia do consentimento e da cooperação do governo de Cartum.</t>
+          <t>Impostos indiretos incidem sobre as mercadorias e são embutidos nos preços, enquanto impostos diretos incidem sobre a renda e propriedade.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A Organização da Unidade Africana (OUA) mobilizou suas tropas em Darfur em 2004 sob uma autorização da ONU, agindo independentemente do consentimento do governo de Cartum.</t>
+          <t>Impostos diretos são aqueles pagos no ato da compra de mercadorias, como o ICMS.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Na ausência de uma autorização do Conselho de Segurança da ONU, a mobilização dessas forças depende do consentimento e da cooperação do governo de Cartum.</t>
+          <t>A distinção baseia-se na base de incidência: transações/preços (indireto) vs. renda/patrimônio (direto).</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1328,32 +1328,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Em agosto de 2004, o presidente ruandês Paul Kagame declarou que as tropas ruandesas em Darfur fariam uso da força para proteger os civis e não ficariam observando o massacre, como aconteceu em 1994.</t>
+          <t>Subsídios funcionam como impostos indiretos negativos, reduzindo o preço de mercado abaixo do custo de produção.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>O presidente ruandês limitou o mandato das tropas ruandesas em Darfur, instruindo-as a focar apenas na proteção dos observadores de paz da OUA.</t>
+          <t>Subsídios são taxas extras cobradas pelo governo sobre produtos supérfluos para desestimular o consumo.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>O presidente Paul Kagame declarou que as tropas fariam uso da força para proteger os civis e não ficariam observando o massacre, como aconteceu em 1994.</t>
+          <t>O subsídio é uma injeção de recursos do governo na produção, barateando o bem final.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1362,36 +1362,954 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cap. 2 - Alcance ampliado do Conselho de Segurança</t>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A ampliação da competência do Conselho de Segurança para ações humanitárias contribuiu para aperfeiçoar o direito internacional, embora o Conselho continue sendo um organismo político que nem sempre age.</t>
+          <t>O PIB a custo de fatores (PIBcf) é obtido subtraindo-se os impostos indiretos e somando-se os subsídios ao PIB a preços de mercado.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A ampliação da competência do Conselho de Segurança para crises humanitárias não afetou o direito internacional, pois tais ações não são coerentes com as normas em vigor sobre o emprego da força.</t>
+          <t>O PIB a custo de fatores é sempre maior que o PIB a preços de mercado em economias com alta carga tributária.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>A ampliação da competência contribuiu para aperfeiçoar o direito internacional, mas o Conselho de Segurança continua sendo um organismo político que não pode ser forçado a agir.</t>
+          <t>PIBcf remove as distorções de preços causadas pela intervenção governamental (impostos/subsídios).</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A poupança pública (Sg) é a diferença entre a renda líquida do governo (impostos menos transferências) e o consumo do governo.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A poupança pública é equivalente ao superávit primário, ignorando o pagamento de juros da dívida.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sg = T (receita líquida) - G (consumo corrente).</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>As transferências do governo (como aposentadorias) aumentam a renda disponível das famílias, atuando como um imposto direto negativo.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Transferências do governo são contabilizadas como consumo do governo (G) na ótica do dispêndio.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Transferências são redistribuição de renda, não compra de bens/serviços; afetam o consumo privado, não o público.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A renda líquida do setor público (T) subtrai subsídios e transferências da arrecadação total de impostos diretos e indiretos.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A renda líquida do governo é simplesmente a soma de todos os impostos arrecadados, sem deduções.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>O governo devolve parte da arrecadação via transferências e subsídios, que não compõem sua renda disponível final.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>O déficit público ocorre quando o investimento público supera a poupança pública, exigindo financiamento de outros setores (privado ou externo).</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>O déficit público é sinônimo de poupança pública negativa, independentemente do nível de investimento.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Déficit (Dg) = Investimento Público (Ig) - Poupança Pública (Sg).</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>O conceito de residente na contabilidade nacional independe da nacionalidade, referindo-se aos agentes estabelecidos no país.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Apenas cidadãos com nacionalidade brasileira são considerados residentes para fins de cálculo do PIB.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Residentes incluem estrangeiros estabelecidos no país e empresas multinacionais operando localmente.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Se houver déficit público, o setor privado ou o setor externo devem gerar um excesso de poupança para financiar o governo.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>O déficit público não afeta o equilíbrio poupança-investimento, pois o governo pode emitir moeda ilimitadamente.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>A identidade I = S implica que déficits de um setor devem ser cobertos por superávits de poupança de outros.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>A Renda Líquida Enviada ao Exterior é a diferença entre pagamentos a fatores externos e recebimentos de fatores nacionais no exterior.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A Renda Líquida Enviada ao Exterior refere-se exclusivamente ao saldo da balança comercial (exportações menos importações).</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>RLEE trata da remuneração de fatores (juros, lucros, salários), não de comércio de bens.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>O Produto Nacional Bruto (PNB) é igual ao Produto Interno Bruto (PIB) menos a renda líquida enviada ao exterior.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>O Produto Nacional Bruto é sempre maior que o Produto Interno Bruto em países em desenvolvimento.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>PNB foca na propriedade dos fatores (nacionais), enquanto PIB foca na localização da produção.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>A Poupança Externa (Se) corresponde ao déficit nas transações correntes do país (importações + renda enviada &gt; exportações + renda recebida).</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A Poupança Externa representa o dinheiro que o governo brasileiro guarda em bancos no exterior.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Se é o financiamento que o resto do mundo fornece ao país para cobrir o excesso de gastos internos.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>A identidade de investimento em uma economia aberta é: Investimento = Poupança Privada + Poupança Pública + Poupança Externa.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Em uma economia aberta, o investimento depende exclusivamente da poupança externa, pois a poupança interna é irrelevante.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>O financiamento do investimento agrega todas as fontes de poupança disponíveis (internas e externa).</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>A Renda Nacional (RN) equivale ao Produto Nacional Líquido a custo de fatores (PNLcf).</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A Renda Nacional é calculada somando-se o PIB a preços de mercado com a depreciação.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Renda Nacional é a remuneração líquida dos fatores nacionais, livre de impostos indiretos e depreciação.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>A Renda Pessoal Disponível é a renda que efetivamente chega às famílias após o pagamento de impostos diretos.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A Renda Pessoal Disponível inclui os impostos diretos, pois eles são pagos voluntariamente pelas famílias.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>RPD = Renda Pessoal - Impostos Diretos (é o que sobra para consumir ou poupar).</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>O Produto Real é medido a preços constantes, eliminando o efeito da inflação para avaliar o crescimento da produção física.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>O Produto Real é calculado usando a cotação do dólar do dia, refletindo o valor internacional da produção.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Produto Real isola a variação de preços (inflação) para medir apenas a variação de quantidade.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>O Deflator Implícito do Produto é a razão entre o PIB nominal e o PIB real, funcionando como um índice de preços.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>O Deflator Implícito é uma medida que reduz o PIB para descontar a depreciação das máquinas.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>O deflator captura a variação média dos preços entre o PIB a preços correntes e constantes.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>O Produto Nominal pode crescer apenas devido ao aumento de preços (inflação), mesmo que a produção física estagne.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>O Produto Nominal é imune à inflação, pois é corrigido diariamente pelo Banco Central.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Nominal = Quantidade x Preço Corrente; se Preço sobe, Nominal sobe mesmo com Quantidade fixa.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>O período do "Milagre Econômico" (1968-1973) caracterizou-se por taxas de crescimento do PIB superiores a 10% ao ano.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>O "Milagre Econômico" foi um período de profunda recessão e estagnação do PIB brasileiro nos anos 1970.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Os dados históricos mostram a maior aceleração do crescimento do PIB nessa fase.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>A "década perdida" (anos 1980) foi marcada pela crise da dívida externa e alta instabilidade, com anos de recessão.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Nos anos 1980, o Brasil viveu sua maior estabilidade econômica e crescimento contínuo, sem crises.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>A crise da dívida e a hiperinflação geraram estagnação e quedas no PIB na década de 1980.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>O gráfico do PIB real mostra uma forte contração em 2020 devido aos impactos da pandemia de Covid-19.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>A pandemia de Covid-19 em 2020 impulsionou o PIB brasileiro a um recorde de crescimento positivo.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>A pandemia causou uma recessão global e doméstica severa, visível na queda do PIB em 2020.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Comparado a outros países, o Brasil possui uma alta participação do consumo (famílias + governo) no PIB, cerca de 80%.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>O Brasil se destaca internacionalmente por ter uma taxa de investimento superior a 40% do PIB, maior que a da China.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Dados comparativos mostram o Brasil com alto consumo e baixo investimento (FBC ~18%) relativo à China (~42%).</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>A baixa relação de Exportações e Importações sobre o PIB sugere que a economia brasileira é relativamente fechada.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>O Brasil é uma das economias mais abertas do mundo, com comércio exterior representando mais de 80% do PIB.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>A soma de X+M sobre o PIB no Brasil é baixa comparada a economias integradas como a Alemanha.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>A taxa de investimento (Formação Bruta de Capital) brasileira em 2021 foi significativamente inferior à taxa chinesa.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>A taxa de investimento do Brasil é historicamente idêntica à dos tigres asiáticos e da China.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>A FBC brasileira girou em torno de 18-19%, enquanto a chinesa superou 40%.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>O PIB em dólares correntes pode ser enganoso para comparações de bem-estar, pois flutua com a taxa de câmbio.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>O PIB em dólares correntes é a medida perfeita de bem-estar, pois o dólar tem valor fixo em todos os países.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Variações cambiais alteram o valor em dólares sem mudar a produção física ou o consumo real interno.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pág 20</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>O PIB pela Paridade do Poder de Compra (PPP) utiliza preços internacionais padronizados (geralmente dos EUA) para medir a produção.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>O PIB PPP utiliza os preços locais de cada país convertidos pela taxa de câmbio oficial do dia.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PPP aplica um vetor de preços único (EUA) às quantidades de todos os países para equalizar o poder de compra.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Pág 20</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Uma desvalorização da moeda local reduz o PIB em dólares correntes, mas não afeta necessariamente o PIB PPP.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Se o Real se desvaloriza, o PIB PPP do Brasil cai automaticamente na mesma proporção.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>O PIB PPP baseia-se em quantidades físicas e preços internacionais, isolando o efeito cambial nominal.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Pág 21</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Em 2021, o Brasil ocupava uma posição melhor no ranking mundial de PIB PPP (8º) do que no ranking de PIB nominal (11º).</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>O Brasil é muito mais rico em dólares nominais do que em paridade de poder de compra devido à força do Real.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Como os preços internos são menores que nos EUA, o ajuste PPP eleva o valor relativo do PIB brasileiro.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pág 21</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Pelo critério de PIB PPP, a China superou os Estados Unidos e tornou-se a maior economia do mundo a partir de 2016.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Os Estados Unidos permanecem como a maior economia do mundo em qualquer critério de mensuração, inclusive PPP.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>A China assumiu a liderança no volume total de produção ajustado pelo poder de compra (PPP).</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pág 21</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Cap. 2 – Contabilidade Nacional: Agregados Macroeconômicos</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Apesar do tamanho do PIB total, o PIB per capita do Brasil é muito inferior ao de países desenvolvidos e até de alguns emergentes europeus.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>O PIB per capita do Brasil já alcançou o nível de países como Portugal e Grécia.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>A renda por habitante brasileira é baixa (ranking ~80º), apesar do PIB agregado ser grande.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
